--- a/e61 Projects/Fiscal sustainability/OECD comparison/table4_gov_exp-gdp.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/table4_gov_exp-gdp.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176F55A8-A13C-4F7F-862A-8BBC40D9CFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D45C1-F06E-434E-8FE0-2DA34480EB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
     <sheet name="GDP" sheetId="2" r:id="rId2"/>
     <sheet name="exp_%_gpd" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7231" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="101">
   <si>
     <t>Consolidated government expenditure, National currency in millions at current prices</t>
   </si>
@@ -305,15 +309,49 @@
   <si>
     <t>Data for the subsectors of general government were not available for Colombia, Japan, Korea and Türkiye. In the case of Australia and the United States, local data are included within the data for the state level of government.</t>
   </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>FY31</t>
+  </si>
+  <si>
+    <t>FY32</t>
+  </si>
+  <si>
+    <t>FY33</t>
+  </si>
+  <si>
+    <t>FY34</t>
+  </si>
+  <si>
+    <t>FY35</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -365,6 +403,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -461,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,12 +532,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF007A37"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF007A37"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1B4AF02C-039B-461A-86BC-B09F1F64BC07}"/>
   </tableStyles>
@@ -507,6 +569,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="full results - scaling"/>
+      <sheetName val="Front end &gt;&gt;"/>
+      <sheetName val="home"/>
+      <sheetName val="instructions"/>
+      <sheetName val="the economy"/>
+      <sheetName val="personal income tax"/>
+      <sheetName val="other taxes"/>
+      <sheetName val="spending"/>
+      <sheetName val="results summary"/>
+      <sheetName val="full results"/>
+      <sheetName val="chart summary"/>
+      <sheetName val="form controls"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Economic Parameters"/>
+      <sheetName val="Financial statement inputs"/>
+      <sheetName val="Statement outputs"/>
+      <sheetName val="Population Parameters"/>
+      <sheetName val="Expenses"/>
+      <sheetName val="Revenue"/>
+      <sheetName val="Stockflow - baseline"/>
+      <sheetName val="Stockflow - scenario"/>
+      <sheetName val="Overview - Baseline"/>
+      <sheetName val="Overview - Scenario"/>
+      <sheetName val="PIT"/>
+      <sheetName val="Sustainability"/>
+      <sheetName val="Economic inputs"/>
+      <sheetName val="Historical population inputs"/>
+      <sheetName val="Agency inputs"/>
+      <sheetName val="Yield curve"/>
+      <sheetName val="Yield curve - Scenario"/>
+      <sheetName val="Yield curve - Sustainability"/>
+      <sheetName val="AGS historical"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,15 +922,15 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5"/>
-    <col min="4" max="61" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="5"/>
+    <col min="4" max="61" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -854,7 +994,7 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
     </row>
-    <row r="2" spans="1:62" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22"/>
       <c r="C2" s="10"/>
       <c r="D2" s="9">
@@ -1035,7 +1175,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +1363,7 @@
         <v>552998</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1411,7 +1551,7 @@
         <v>477501</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1599,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1927,7 @@
         <v>168113.13999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1975,7 +2115,7 @@
         <v>42010.39</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2163,7 +2303,7 @@
         <v>39476.93</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2351,7 +2491,7 @@
         <v>171837.09999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2539,7 +2679,7 @@
         <v>104413.5</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2727,7 +2867,7 @@
         <v>41693</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +3055,7 @@
         <v>424886</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3103,7 +3243,7 @@
         <v>588858</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3291,7 +3431,7 @@
         <v>243482</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3667,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3855,7 +3995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -4043,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -4231,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4419,7 +4559,7 @@
         <v>18432795.979000002</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -4607,7 +4747,7 @@
         <v>803738.12899999996</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -4795,7 +4935,7 @@
         <v>2422401</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4983,7 +5123,7 @@
         <v>921940</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -5171,7 +5311,7 @@
         <v>468371</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -5359,7 +5499,7 @@
         <v>845159</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -5547,7 +5687,7 @@
         <v>12548.2</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -5735,7 +5875,7 @@
         <v>4013.7</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -5923,7 +6063,7 @@
         <v>89730</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -6111,7 +6251,7 @@
         <v>62673</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6299,7 +6439,7 @@
         <v>1302553.6000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -6487,7 +6627,7 @@
         <v>307504.3</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -6675,7 +6815,7 @@
         <v>1230544</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -6863,7 +7003,7 @@
         <v>430878</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -7051,7 +7191,7 @@
         <v>363583</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -7239,7 +7379,7 @@
         <v>102951</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -7427,7 +7567,7 @@
         <v>9339</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -7615,7 +7755,7 @@
         <v>32919613.5</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -7803,7 +7943,7 @@
         <v>4233168.2</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -7991,7 +8131,7 @@
         <v>1373885.9200000002</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -8179,7 +8319,7 @@
         <v>592336.14999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -8367,7 +8507,7 @@
         <v>103969.9</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -8555,7 +8695,7 @@
         <v>12091.400000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -8743,7 +8883,7 @@
         <v>669280.10699999984</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -8931,7 +9071,7 @@
         <v>99551.243000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -9119,7 +9259,7 @@
         <v>862378</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -9307,7 +9447,7 @@
         <v>283560</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -9390,7 +9530,7 @@
       <c r="BH47" s="2"/>
       <c r="BI47" s="2"/>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -9461,7 +9601,7 @@
       <c r="BH48" s="2"/>
       <c r="BI48" s="2"/>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -9532,7 +9672,7 @@
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -9603,7 +9743,7 @@
       <c r="BH50" s="2"/>
       <c r="BI50" s="2"/>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -9791,7 +9931,7 @@
         <v>13068.76</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -9979,7 +10119,7 @@
         <v>4188.76</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -10167,7 +10307,7 @@
         <v>20789.2</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -10355,7 +10495,7 @@
         <v>6793.5</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -10543,7 +10683,7 @@
         <v>33571.71</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -10731,7 +10871,7 @@
         <v>4396.38</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -10919,7 +11059,7 @@
         <v>7318547.4000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -11107,7 +11247,7 @@
         <v>3776954.2</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -11295,7 +11435,7 @@
         <v>1604942.1</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -11483,7 +11623,7 @@
         <v>328792</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -11671,7 +11811,7 @@
         <v>134746</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -11859,7 +11999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -12047,7 +12187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -12235,7 +12375,7 @@
         <v>1599999</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -12423,7 +12563,7 @@
         <v>780274</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -12611,7 +12751,7 @@
         <v>1137661</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -12799,7 +12939,7 @@
         <v>466331</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -12987,7 +13127,7 @@
         <v>96395.9</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -13175,7 +13315,7 @@
         <v>17304.300000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -13363,7 +13503,7 @@
         <v>49071.399999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -13551,7 +13691,7 @@
         <v>10505.999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -13739,7 +13879,7 @@
         <v>24042.44</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -13927,7 +14067,7 @@
         <v>5705.5</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -14115,7 +14255,7 @@
         <v>376676</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -14303,7 +14443,7 @@
         <v>224939</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14491,7 +14631,7 @@
         <v>81125</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -14679,7 +14819,7 @@
         <v>1513487</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -14867,7 +15007,7 @@
         <v>1556583</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -15055,7 +15195,7 @@
         <v>112218.00000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -15243,7 +15383,7 @@
         <v>101838.3</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -15431,7 +15571,7 @@
         <v>52756.5</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -15500,7 +15640,7 @@
       <c r="BH82" s="2"/>
       <c r="BI82" s="2"/>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -15569,7 +15709,7 @@
       <c r="BH83" s="2"/>
       <c r="BI83" s="2"/>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -15757,7 +15897,7 @@
         <v>1028513</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -15945,7 +16085,7 @@
         <v>253335</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -16133,7 +16273,7 @@
         <v>5907035.4229999995</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -16321,7 +16461,7 @@
         <v>4939752.7680000002</v>
       </c>
     </row>
-    <row r="88" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -16509,7 +16649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:62" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>41</v>
       </c>
@@ -16517,13 +16657,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:62" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B90"/>
       <c r="C90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>42</v>
       </c>
@@ -16531,13 +16671,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>3</v>
       </c>
@@ -16554,7 +16694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>3</v>
       </c>
@@ -16571,7 +16711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>3</v>
       </c>
@@ -16588,7 +16728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:61" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>3</v>
       </c>
@@ -16658,7 +16798,7 @@
       <c r="BH98" s="19"/>
       <c r="BI98" s="19"/>
     </row>
-    <row r="99" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:61" x14ac:dyDescent="0.3">
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
@@ -16713,7 +16853,7 @@
       <c r="BH99" s="19"/>
       <c r="BI99" s="19"/>
     </row>
-    <row r="100" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:61" x14ac:dyDescent="0.3">
       <c r="AP100" s="19"/>
       <c r="AQ100" s="19"/>
       <c r="AR100" s="19"/>
@@ -16732,7 +16872,7 @@
       <c r="BE100" s="19"/>
       <c r="BF100" s="19"/>
     </row>
-    <row r="101" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:61" x14ac:dyDescent="0.3">
       <c r="AP101" s="19"/>
       <c r="AQ101" s="19"/>
       <c r="AR101" s="19"/>
@@ -16751,7 +16891,7 @@
       <c r="BE101" s="19"/>
       <c r="BF101" s="19"/>
     </row>
-    <row r="102" spans="4:61" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:61" x14ac:dyDescent="0.3">
       <c r="AP102" s="19"/>
       <c r="AQ102" s="19"/>
       <c r="AR102" s="19"/>
@@ -16791,15 +16931,15 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="62" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="6"/>
+    <col min="4" max="62" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
@@ -16864,7 +17004,7 @@
       <c r="BI1" s="21"/>
       <c r="BJ1" s="21"/>
     </row>
-    <row r="2" spans="1:62" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22"/>
       <c r="C2" s="10"/>
       <c r="D2" s="9">
@@ -17045,7 +17185,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -17231,7 +17371,7 @@
         <v>2672659</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -17417,7 +17557,7 @@
         <v>473226.71799999999</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -17603,7 +17743,7 @@
         <v>596320.6</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -17789,7 +17929,7 @@
         <v>2933810</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -17975,7 +18115,7 @@
         <v>281870320.62800002</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -18161,7 +18301,7 @@
         <v>1572458300</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -18347,7 +18487,7 @@
         <v>47059272.162</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -18533,7 +18673,7 @@
         <v>7618528</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -18719,7 +18859,7 @@
         <v>2804742.2560000001</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -18905,7 +19045,7 @@
         <v>38187.777000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -19091,7 +19231,7 @@
         <v>273318</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -19277,7 +19417,7 @@
         <v>2822454.6</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -19463,7 +19603,7 @@
         <v>4185550</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -19649,7 +19789,7 @@
         <v>225196.891</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -19835,7 +19975,7 @@
         <v>75086595</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -20021,7 +20161,7 @@
         <v>4321079.0630000001</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -20207,7 +20347,7 @@
         <v>509951.80599999998</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -20393,7 +20533,7 @@
         <v>1883604.365</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -20579,7 +20719,7 @@
         <v>2128001.4</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -20765,7 +20905,7 @@
         <v>590694100</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -20951,7 +21091,7 @@
         <v>2401189400</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -21137,7 +21277,7 @@
         <v>39072.483</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -21323,7 +21463,7 @@
         <v>73792.835000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -21509,7 +21649,7 @@
         <v>79309.622000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -21695,7 +21835,7 @@
         <v>31855566.300999999</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -21881,7 +22021,7 @@
         <v>1067599</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -22067,7 +22207,7 @@
         <v>410651</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -22253,7 +22393,7 @@
         <v>5126500</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -22439,7 +22579,7 @@
         <v>3401610</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -22625,7 +22765,7 @@
         <v>267384.33199999999</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -22811,7 +22951,7 @@
         <v>122918.887</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -22997,7 +23137,7 @@
         <v>63951.239000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -23183,7 +23323,7 @@
         <v>1498324</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -23369,7 +23509,7 @@
         <v>6208117</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -23555,7 +23695,7 @@
         <v>803631.75800000003</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -23741,7 +23881,7 @@
         <v>26545720</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -23927,7 +24067,7 @@
         <v>2717320</v>
       </c>
     </row>
-    <row r="40" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -24113,7 +24253,7 @@
         <v>27720709</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -24178,7 +24318,7 @@
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -24237,7 +24377,7 @@
       <c r="BD42" s="2"/>
       <c r="BE42" s="2"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -24293,7 +24433,7 @@
       <c r="BD43" s="2"/>
       <c r="BE43" s="2"/>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -24349,7 +24489,7 @@
       <c r="BD44" s="2"/>
       <c r="BE44" s="2"/>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -24405,7 +24545,7 @@
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -24461,7 +24601,7 @@
       <c r="BD46" s="2"/>
       <c r="BE46" s="2"/>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -24517,7 +24657,7 @@
       <c r="BD47" s="2"/>
       <c r="BE47" s="2"/>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -24573,7 +24713,7 @@
       <c r="BD48" s="2"/>
       <c r="BE48" s="2"/>
     </row>
-    <row r="49" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -24629,7 +24769,7 @@
       <c r="BD49" s="2"/>
       <c r="BE49" s="2"/>
     </row>
-    <row r="50" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -24685,7 +24825,7 @@
       <c r="BD50" s="2"/>
       <c r="BE50" s="2"/>
     </row>
-    <row r="51" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -24741,7 +24881,7 @@
       <c r="BD51" s="2"/>
       <c r="BE51" s="2"/>
     </row>
-    <row r="52" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -24797,7 +24937,7 @@
       <c r="BD52" s="2"/>
       <c r="BE52" s="2"/>
     </row>
-    <row r="53" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -24853,7 +24993,7 @@
       <c r="BD53" s="2"/>
       <c r="BE53" s="2"/>
     </row>
-    <row r="54" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -24909,7 +25049,7 @@
       <c r="BD54" s="2"/>
       <c r="BE54" s="2"/>
     </row>
-    <row r="55" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -24965,7 +25105,7 @@
       <c r="BD55" s="2"/>
       <c r="BE55" s="2"/>
     </row>
-    <row r="56" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -25021,7 +25161,7 @@
       <c r="BD56" s="2"/>
       <c r="BE56" s="2"/>
     </row>
-    <row r="57" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -25077,7 +25217,7 @@
       <c r="BD57" s="2"/>
       <c r="BE57" s="2"/>
     </row>
-    <row r="58" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -25133,7 +25273,7 @@
       <c r="BD58" s="2"/>
       <c r="BE58" s="2"/>
     </row>
-    <row r="59" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -25189,7 +25329,7 @@
       <c r="BD59" s="2"/>
       <c r="BE59" s="2"/>
     </row>
-    <row r="60" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -25245,7 +25385,7 @@
       <c r="BD60" s="2"/>
       <c r="BE60" s="2"/>
     </row>
-    <row r="61" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -25301,7 +25441,7 @@
       <c r="BD61" s="2"/>
       <c r="BE61" s="2"/>
     </row>
-    <row r="62" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -25357,7 +25497,7 @@
       <c r="BD62" s="2"/>
       <c r="BE62" s="2"/>
     </row>
-    <row r="63" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -25413,7 +25553,7 @@
       <c r="BD63" s="2"/>
       <c r="BE63" s="2"/>
     </row>
-    <row r="64" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -25469,7 +25609,7 @@
       <c r="BD64" s="2"/>
       <c r="BE64" s="2"/>
     </row>
-    <row r="65" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -25525,7 +25665,7 @@
       <c r="BD65" s="2"/>
       <c r="BE65" s="2"/>
     </row>
-    <row r="66" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -25581,7 +25721,7 @@
       <c r="BD66" s="2"/>
       <c r="BE66" s="2"/>
     </row>
-    <row r="67" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -25637,7 +25777,7 @@
       <c r="BD67" s="2"/>
       <c r="BE67" s="2"/>
     </row>
-    <row r="68" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -25693,7 +25833,7 @@
       <c r="BD68" s="2"/>
       <c r="BE68" s="2"/>
     </row>
-    <row r="69" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -25749,7 +25889,7 @@
       <c r="BD69" s="2"/>
       <c r="BE69" s="2"/>
     </row>
-    <row r="70" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -25805,7 +25945,7 @@
       <c r="BD70" s="2"/>
       <c r="BE70" s="2"/>
     </row>
-    <row r="71" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -25861,7 +26001,7 @@
       <c r="BD71" s="2"/>
       <c r="BE71" s="2"/>
     </row>
-    <row r="72" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -25917,7 +26057,7 @@
       <c r="BD72" s="2"/>
       <c r="BE72" s="2"/>
     </row>
-    <row r="73" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -25973,7 +26113,7 @@
       <c r="BD73" s="2"/>
       <c r="BE73" s="2"/>
     </row>
-    <row r="74" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -26029,7 +26169,7 @@
       <c r="BD74" s="2"/>
       <c r="BE74" s="2"/>
     </row>
-    <row r="75" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -26085,7 +26225,7 @@
       <c r="BD75" s="2"/>
       <c r="BE75" s="2"/>
     </row>
-    <row r="76" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -26141,7 +26281,7 @@
       <c r="BD76" s="2"/>
       <c r="BE76" s="2"/>
     </row>
-    <row r="77" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -26197,7 +26337,7 @@
       <c r="BD77" s="2"/>
       <c r="BE77" s="2"/>
     </row>
-    <row r="78" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -26253,7 +26393,7 @@
       <c r="BD78" s="2"/>
       <c r="BE78" s="2"/>
     </row>
-    <row r="79" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -26309,7 +26449,7 @@
       <c r="BD79" s="2"/>
       <c r="BE79" s="2"/>
     </row>
-    <row r="80" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -26365,7 +26505,7 @@
       <c r="BD80" s="2"/>
       <c r="BE80" s="2"/>
     </row>
-    <row r="81" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -26421,7 +26561,7 @@
       <c r="BD81" s="2"/>
       <c r="BE81" s="2"/>
     </row>
-    <row r="82" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -26477,7 +26617,7 @@
       <c r="BD82" s="2"/>
       <c r="BE82" s="2"/>
     </row>
-    <row r="83" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -26533,7 +26673,7 @@
       <c r="BD83" s="2"/>
       <c r="BE83" s="2"/>
     </row>
-    <row r="84" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -26589,7 +26729,7 @@
       <c r="BD84" s="2"/>
       <c r="BE84" s="2"/>
     </row>
-    <row r="85" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -26645,7 +26785,7 @@
       <c r="BD85" s="2"/>
       <c r="BE85" s="2"/>
     </row>
-    <row r="86" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -26701,7 +26841,7 @@
       <c r="BD86" s="2"/>
       <c r="BE86" s="2"/>
     </row>
-    <row r="87" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -26757,7 +26897,7 @@
       <c r="BD87" s="2"/>
       <c r="BE87" s="2"/>
     </row>
-    <row r="88" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -26813,7 +26953,7 @@
       <c r="BD88" s="2"/>
       <c r="BE88" s="2"/>
     </row>
-    <row r="89" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -26869,7 +27009,7 @@
       <c r="BD89" s="2"/>
       <c r="BE89" s="2"/>
     </row>
-    <row r="90" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -26925,7 +27065,7 @@
       <c r="BD90" s="2"/>
       <c r="BE90" s="2"/>
     </row>
-    <row r="91" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -26981,7 +27121,7 @@
       <c r="BD91" s="2"/>
       <c r="BE91" s="2"/>
     </row>
-    <row r="92" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -27037,7 +27177,7 @@
       <c r="BD92" s="2"/>
       <c r="BE92" s="2"/>
     </row>
-    <row r="93" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -27093,7 +27233,7 @@
       <c r="BD93" s="2"/>
       <c r="BE93" s="2"/>
     </row>
-    <row r="94" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -27149,7 +27289,7 @@
       <c r="BD94" s="2"/>
       <c r="BE94" s="2"/>
     </row>
-    <row r="95" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -27205,7 +27345,7 @@
       <c r="BD95" s="2"/>
       <c r="BE95" s="2"/>
     </row>
-    <row r="96" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -27261,7 +27401,7 @@
       <c r="BD96" s="2"/>
       <c r="BE96" s="2"/>
     </row>
-    <row r="97" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -27317,7 +27457,7 @@
       <c r="BD97" s="2"/>
       <c r="BE97" s="2"/>
     </row>
-    <row r="98" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -27373,7 +27513,7 @@
       <c r="BD98" s="2"/>
       <c r="BE98" s="2"/>
     </row>
-    <row r="99" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -27429,7 +27569,7 @@
       <c r="BD99" s="2"/>
       <c r="BE99" s="2"/>
     </row>
-    <row r="100" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -27485,7 +27625,7 @@
       <c r="BD100" s="2"/>
       <c r="BE100" s="2"/>
     </row>
-    <row r="101" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -27541,7 +27681,7 @@
       <c r="BD101" s="2"/>
       <c r="BE101" s="2"/>
     </row>
-    <row r="102" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -27597,7 +27737,7 @@
       <c r="BD102" s="2"/>
       <c r="BE102" s="2"/>
     </row>
-    <row r="103" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -27653,7 +27793,7 @@
       <c r="BD103" s="2"/>
       <c r="BE103" s="2"/>
     </row>
-    <row r="104" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -27709,7 +27849,7 @@
       <c r="BD104" s="2"/>
       <c r="BE104" s="2"/>
     </row>
-    <row r="105" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -27765,7 +27905,7 @@
       <c r="BD105" s="2"/>
       <c r="BE105" s="2"/>
     </row>
-    <row r="106" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -27821,7 +27961,7 @@
       <c r="BD106" s="2"/>
       <c r="BE106" s="2"/>
     </row>
-    <row r="107" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -27877,7 +28017,7 @@
       <c r="BD107" s="2"/>
       <c r="BE107" s="2"/>
     </row>
-    <row r="108" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -27933,7 +28073,7 @@
       <c r="BD108" s="2"/>
       <c r="BE108" s="2"/>
     </row>
-    <row r="109" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -27989,7 +28129,7 @@
       <c r="BD109" s="2"/>
       <c r="BE109" s="2"/>
     </row>
-    <row r="110" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -28045,7 +28185,7 @@
       <c r="BD110" s="2"/>
       <c r="BE110" s="2"/>
     </row>
-    <row r="111" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -28101,7 +28241,7 @@
       <c r="BD111" s="2"/>
       <c r="BE111" s="2"/>
     </row>
-    <row r="112" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -28157,7 +28297,7 @@
       <c r="BD112" s="2"/>
       <c r="BE112" s="2"/>
     </row>
-    <row r="113" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -28213,7 +28353,7 @@
       <c r="BD113" s="2"/>
       <c r="BE113" s="2"/>
     </row>
-    <row r="114" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -28269,7 +28409,7 @@
       <c r="BD114" s="2"/>
       <c r="BE114" s="2"/>
     </row>
-    <row r="115" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -28325,7 +28465,7 @@
       <c r="BD115" s="2"/>
       <c r="BE115" s="2"/>
     </row>
-    <row r="116" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -28381,7 +28521,7 @@
       <c r="BD116" s="2"/>
       <c r="BE116" s="2"/>
     </row>
-    <row r="117" spans="4:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:57" x14ac:dyDescent="0.3">
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -28451,23 +28591,23 @@
   <dimension ref="A1:BC93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AF49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BC73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:BC88"/>
+      <selection pane="bottomRight" activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="5"/>
-    <col min="4" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="50" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="5"/>
+    <col min="4" max="39" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="50" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>46</v>
       </c>
@@ -28524,7 +28664,7 @@
       <c r="BB1" s="20"/>
       <c r="BC1" s="20"/>
     </row>
-    <row r="2" spans="1:55" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22"/>
       <c r="C2" s="10"/>
       <c r="D2" s="9">
@@ -28684,7 +28824,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -28851,7 +28991,7 @@
         <v>20.690929894161584</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -29018,7 +29158,7 @@
         <v>17.866140050040052</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -29081,7 +29221,7 @@
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -29248,7 +29388,7 @@
         <v>35.524862313458804</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -29415,7 +29555,7 @@
         <v>8.8774340928062294</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -29582,7 +29722,7 @@
         <v>8.342075478502462</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -29749,7 +29889,7 @@
         <v>28.816227378359894</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -29916,7 +30056,7 @@
         <v>17.50962485615959</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -30083,7 +30223,7 @@
         <v>6.9917088224019093</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -30250,7 +30390,7 @@
         <v>14.482396610550785</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -30417,7 +30557,7 @@
         <v>20.071442935977448</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -30584,7 +30724,7 @@
         <v>8.299174111479612</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -30751,7 +30891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -30918,7 +31058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -31085,7 +31225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -31252,7 +31392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -31419,7 +31559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -31586,7 +31726,7 @@
         <v>39.169318036933738</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -31753,7 +31893,7 @@
         <v>1.7079272416988471</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -31920,7 +32060,7 @@
         <v>31.796181624586794</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -32087,7 +32227,7 @@
         <v>12.101287807828493</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -32254,7 +32394,7 @@
         <v>16.699252810059278</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -32421,7 +32561,7 @@
         <v>30.133214493845458</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -32588,7 +32728,7 @@
         <v>32.859205184947001</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -32755,7 +32895,7 @@
         <v>10.510431125645255</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -32922,7 +33062,7 @@
         <v>32.829890457269556</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -33089,7 +33229,7 @@
         <v>22.930432682809034</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -33256,7 +33396,7 @@
         <v>46.149674116990226</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -33423,7 +33563,7 @@
         <v>10.894924580894941</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -33590,7 +33730,7 @@
         <v>29.39981603373511</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -33757,7 +33897,7 @@
         <v>10.294417698988186</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -33924,7 +34064,7 @@
         <v>8.6866242190393148</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -34091,7 +34231,7 @@
         <v>45.715995253238198</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -34258,7 +34398,7 @@
         <v>4.147037713766661</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -34425,7 +34565,7 @@
         <v>43.842197798421942</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -34592,7 +34732,7 @@
         <v>5.637714960972728</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -34759,7 +34899,7 @@
         <v>31.794972967843616</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -34926,7 +35066,7 @@
         <v>13.708060911728795</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -35093,7 +35233,7 @@
         <v>20.388181545139972</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -35260,7 +35400,7 @@
         <v>2.3710868081522203</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -35427,7 +35567,7 @@
         <v>35.531883416505025</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -35594,7 +35734,7 @@
         <v>5.2851461193125875</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -35761,7 +35901,7 @@
         <v>40.525255293535054</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -35928,7 +36068,7 @@
         <v>13.325179203359546</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -36053,7 +36193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -36116,7 +36256,7 @@
       <c r="BB48" s="14"/>
       <c r="BC48" s="14"/>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -36179,7 +36319,7 @@
       <c r="BB49" s="14"/>
       <c r="BC49" s="14"/>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -36242,7 +36382,7 @@
       <c r="BB50" s="14"/>
       <c r="BC50" s="14"/>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -36409,7 +36549,7 @@
         <v>33.44747760207612</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -36576,7 +36716,7 @@
         <v>10.720485821185207</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -36743,7 +36883,7 @@
         <v>28.172382860747931</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -36910,7 +37050,7 @@
         <v>9.2061783505132979</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -37077,7 +37217,7 @@
         <v>42.329933182634512</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -37244,7 +37384,7 @@
         <v>5.5433122603963483</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -37411,7 +37551,7 @@
         <v>22.974155696520327</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -37578,7 +37718,7 @@
         <v>11.856496802825431</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -37745,7 +37885,7 @@
         <v>5.038184174266644</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -37912,7 +38052,7 @@
         <v>30.797331207691276</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -38079,7 +38219,7 @@
         <v>12.621405602665419</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -38246,7 +38386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -38413,7 +38553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -38580,7 +38720,7 @@
         <v>31.210357944016387</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -38747,7 +38887,7 @@
         <v>15.220403784258266</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -38914,7 +39054,7 @@
         <v>33.444780559793749</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -39081,7 +39221,7 @@
         <v>13.709125972701161</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -39248,7 +39388,7 @@
         <v>36.051439244390728</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -39415,7 +39555,7 @@
         <v>6.4716955816244326</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -39582,7 +39722,7 @@
         <v>39.921773779158933</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -39749,7 +39889,7 @@
         <v>8.5470998447943956</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -39916,7 +40056,7 @@
         <v>37.594955744328892</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -40083,7 +40223,7 @@
         <v>8.9216410646867992</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
@@ -40250,7 +40390,7 @@
         <v>25.139822895448518</v>
       </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -40417,7 +40557,7 @@
         <v>15.012707531882292</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -40584,7 +40724,7 @@
         <v>5.4143830039430725</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -40751,7 +40891,7 @@
         <v>24.379163601459187</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -40918,7 +41058,7 @@
         <v>25.073351549270097</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -41085,7 +41225,7 @@
         <v>13.963858307351762</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -41252,7 +41392,7 @@
         <v>12.672259276244283</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -41419,7 +41559,7 @@
         <v>6.564760473291301</v>
       </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -41482,7 +41622,7 @@
       <c r="BB82" s="14"/>
       <c r="BC82" s="14"/>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -41545,7 +41685,7 @@
       <c r="BB83" s="14"/>
       <c r="BC83" s="14"/>
     </row>
-    <row r="84" spans="1:55" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:55" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -41712,7 +41852,7 @@
         <v>37.85027159112655</v>
       </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -41879,7 +42019,7 @@
         <v>9.3229726348019373</v>
       </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -42046,7 +42186,7 @@
         <v>21.309106570831212</v>
       </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -42213,7 +42353,7 @@
         <v>17.819720152179368</v>
       </c>
     </row>
-    <row r="88" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -42380,7 +42520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:55" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
         <f>exp!B89</f>
         <v xml:space="preserve">Notes: </v>
@@ -42390,14 +42530,14 @@
         <v>Data for 2023 were not available for Chile, Mexico and New Zealand at the time this database was updated (January 2025).</v>
       </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:55" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B90"/>
       <c r="C90" t="str">
         <f>exp!C90</f>
         <v>Data for the subsectors of general government were not available for Colombia, Japan, Korea and Türkiye. In the case of Australia and the United States, local data are included within the data for the state level of government.</v>
       </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="str">
         <f>exp!B91</f>
         <v>Source:</v>
@@ -42407,11 +42547,11 @@
         <v>Calculations based on OECD National Accounts, Annual national accounts: Table 12. Government deficit/surplus, revenue, expenditure and main aggregates</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B92" s="8"/>
       <c r="C92" s="16"/>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B93" s="8"/>
     </row>
   </sheetData>
@@ -42427,13 +42567,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1856AAD9-74C2-4A89-A6E3-89AF787B45E2}">
   <dimension ref="A1:CI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -42693,7 +42833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -42953,7 +43093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1972</v>
       </c>
@@ -43198,7 +43338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1973</v>
       </c>
@@ -43443,7 +43583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1974</v>
       </c>
@@ -43688,7 +43828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1975</v>
       </c>
@@ -43933,7 +44073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1976</v>
       </c>
@@ -44178,7 +44318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1977</v>
       </c>
@@ -44423,7 +44563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1978</v>
       </c>
@@ -44668,7 +44808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1979</v>
       </c>
@@ -44913,7 +45053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1980</v>
       </c>
@@ -45158,7 +45298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1981</v>
       </c>
@@ -45403,7 +45543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1982</v>
       </c>
@@ -45648,7 +45788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1983</v>
       </c>
@@ -45893,7 +46033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1984</v>
       </c>
@@ -46138,7 +46278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1985</v>
       </c>
@@ -46383,7 +46523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1986</v>
       </c>
@@ -46628,7 +46768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1987</v>
       </c>
@@ -46873,7 +47013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1988</v>
       </c>
@@ -47118,7 +47258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1989</v>
       </c>
@@ -47363,7 +47503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1990</v>
       </c>
@@ -47608,7 +47748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1991</v>
       </c>
@@ -47853,7 +47993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1992</v>
       </c>
@@ -48098,7 +48238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1993</v>
       </c>
@@ -48343,7 +48483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1994</v>
       </c>
@@ -48588,7 +48728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1995</v>
       </c>
@@ -48833,7 +48973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1996</v>
       </c>
@@ -49078,7 +49218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1997</v>
       </c>
@@ -49320,7 +49460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1998</v>
       </c>
@@ -49562,7 +49702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1999</v>
       </c>
@@ -49804,7 +49944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2000</v>
       </c>
@@ -50046,7 +50186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2001</v>
       </c>
@@ -50288,7 +50428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -50530,7 +50670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -50772,7 +50912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2004</v>
       </c>
@@ -51014,7 +51154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -51256,7 +51396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2006</v>
       </c>
@@ -51498,7 +51638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2007</v>
       </c>
@@ -51740,7 +51880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2008</v>
       </c>
@@ -51982,7 +52122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -52224,7 +52364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2010</v>
       </c>
@@ -52466,7 +52606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2011</v>
       </c>
@@ -52708,7 +52848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -52950,7 +53090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2013</v>
       </c>
@@ -53192,7 +53332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -53434,7 +53574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -53676,7 +53816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -53918,7 +54058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2017</v>
       </c>
@@ -54160,7 +54300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -54405,7 +54545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -54650,7 +54790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -54895,7 +55035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -55140,7 +55280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2022</v>
       </c>
@@ -55385,7 +55525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -55633,4 +55773,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C59988A-CCA6-473F-B158-86CAF991D5E0}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3*(1+C2)</f>
+        <v>1.03</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:L3" si="0">C3*(1+D2)</f>
+        <v>1.05575</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.08214375</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.1091973437499998</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.1369272773437498</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1.1653504592773434</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1.194484220759277</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1.2243463262782588</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.2549549844352152</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>1.2863288590460955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="25">
+        <f>L3/B3-1</f>
+        <v>0.28632885904609551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>B13*(1+C12)</f>
+        <v>1.0325</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:L13" si="1">C13*(1+D12)</f>
+        <v>1.0660562499999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.1033682187499998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.1447445269531249</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.1876724467138673</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.2322101634656375</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1.278418044595599</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.3263587212679342</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>1.3760971733154819</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1.4277008173148125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B13/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:L15" si="2">C13/C3</f>
+        <v>1.0024271844660193</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1.0097620175230879</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1.0196133542794106</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.0320476634779401</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1.044633610593525</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.0573730448690561</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>1.0702678380991666</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>1.0833198849052543</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>1.0965311030138551</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1.1099034335384144</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="25">
+        <f>L15/B15-1</f>
+        <v>0.10990343353841436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>